--- a/results/I3_N5_M3_T45_C150_DepCentral_s3_P3_res.xlsx
+++ b/results/I3_N5_M3_T45_C150_DepCentral_s3_P3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>461.6407969774093</v>
+        <v>1570.204899660161</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01400017738342285</v>
+        <v>0.005000114440917969</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25.33079697741608</v>
+        <v>19.85485207586932</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.933901838848737</v>
+        <v>14.53978881378947</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.933901838848737</v>
+        <v>4.889836398081229</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>117.3899999999982</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>318.919999999995</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,7 +598,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -609,9 +609,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -656,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -667,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -678,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -689,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -700,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -711,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -722,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -733,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -780,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -791,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -802,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -813,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -824,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -857,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -907,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>33.10555953090582</v>
       </c>
     </row>
     <row r="4">
@@ -923,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.612049279841017</v>
+        <v>40.92773953394845</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30.33301651610694</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>15.33301651610694</v>
       </c>
     </row>
     <row r="8">
@@ -947,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>37.99539592898705</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -963,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>32.95784031971738</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -977,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1009,10 +1031,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1023,13 +1045,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1037,15 +1059,183 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
         <v>6</v>
       </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>86.015</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8">
@@ -1159,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>75.45</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9">
@@ -1170,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>80.14500000000014</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10">
@@ -1181,7 +1371,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>73.45500000000003</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11">
@@ -1192,7 +1382,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>77.35999999999996</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12">
@@ -1203,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>164.5249999999998</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13">
@@ -1214,7 +1404,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>165.4149999999997</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14">
@@ -1225,7 +1415,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>158.2899999999999</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
@@ -1236,7 +1426,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>160.15</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16">
@@ -1247,7 +1437,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>160.3149999999997</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17">
@@ -1258,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>35.25999999999986</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18">
@@ -1269,7 +1459,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>27.32499999999985</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19">
@@ -1280,7 +1470,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>30.18999999999986</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20">
@@ -1291,7 +1481,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>25.3</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21">
@@ -1302,7 +1492,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>28.38999999999985</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22">
@@ -1313,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>113.295000000001</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
@@ -1324,7 +1514,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>121.65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -1335,7 +1525,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>123.55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25">
@@ -1346,7 +1536,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>125.910000000001</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
@@ -1357,7 +1547,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>126.085000000001</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
@@ -1368,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>45.97500000000073</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28">
@@ -1379,7 +1569,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>45.44500000000073</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
@@ -1390,7 +1580,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>42.36000000000072</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30">
@@ -1401,7 +1591,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>55.32000000000073</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">
@@ -1412,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>51.5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32">
@@ -1423,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>164.5249999999998</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33">
@@ -1434,7 +1624,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>165.4149999999997</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34">
@@ -1445,7 +1635,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>158.2899999999999</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35">
@@ -1456,7 +1646,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>160.15</v>
+        <v>290</v>
       </c>
     </row>
     <row r="36">
@@ -1467,7 +1657,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>160.3149999999997</v>
+        <v>282</v>
       </c>
     </row>
     <row r="37">
@@ -1533,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>113.295000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1544,7 +1734,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>121.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1555,7 +1745,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>123.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1566,7 +1756,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>125.910000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1577,7 +1767,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>126.085000000001</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1624,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>14.52499999999978</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3">
@@ -1635,7 +1825,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>15.41499999999964</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4">
@@ -1646,7 +1836,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>8.289999999999928</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5">
@@ -1657,7 +1847,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>10.15</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6">
@@ -1668,7 +1858,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>10.31499999999973</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7">
@@ -1825,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>14.96499999999951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1836,7 +2026,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>11.31499999999963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1847,7 +2037,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>19.41999999999936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1858,7 +2048,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>16.02499999999947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1869,7 +2059,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>14.21499999999953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1880,7 +2070,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>7.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1891,7 +2081,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1902,7 +2092,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>2.985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1913,7 +2103,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>3.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1924,7 +2114,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1935,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>10.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1946,7 +2136,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>11.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1957,7 +2147,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>12.205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1968,7 +2158,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>12.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1979,7 +2169,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>12.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1990,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -2001,7 +2191,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -2012,7 +2202,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -2023,7 +2213,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -2034,7 +2224,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -2045,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -2056,7 +2246,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2067,7 +2257,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2078,7 +2268,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -2089,7 +2279,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2103,7 +2293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2130,7 +2320,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2141,7 +2331,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2152,7 +2342,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2163,7 +2353,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2174,12 +2364,122 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
